--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H2">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I2">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J2">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.560797333333333</v>
+        <v>2.724367666666667</v>
       </c>
       <c r="N2">
-        <v>10.682392</v>
+        <v>8.173103000000001</v>
       </c>
       <c r="O2">
-        <v>0.08920903641850739</v>
+        <v>0.0714746893937865</v>
       </c>
       <c r="P2">
-        <v>0.09912544905465519</v>
+        <v>0.08141055085372029</v>
       </c>
       <c r="Q2">
-        <v>145.7697087899236</v>
+        <v>97.45466804142613</v>
       </c>
       <c r="R2">
-        <v>1311.927379109312</v>
+        <v>877.0920123728351</v>
       </c>
       <c r="S2">
-        <v>0.01169453808609323</v>
+        <v>0.007566608700279067</v>
       </c>
       <c r="T2">
-        <v>0.0135653517626159</v>
+        <v>0.009056623358362215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H3">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I3">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J3">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>45.480693</v>
       </c>
       <c r="O3">
-        <v>0.3798108886264382</v>
+        <v>0.3977336888558922</v>
       </c>
       <c r="P3">
-        <v>0.4220303951532497</v>
+        <v>0.4530235664886322</v>
       </c>
       <c r="Q3">
-        <v>620.6201171211387</v>
+        <v>542.3039252789316</v>
       </c>
       <c r="R3">
-        <v>5585.581054090248</v>
+        <v>4880.735327510385</v>
       </c>
       <c r="S3">
-        <v>0.04978994371957272</v>
+        <v>0.04210574702760031</v>
       </c>
       <c r="T3">
-        <v>0.05775500458628956</v>
+        <v>0.05039720000816101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H4">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I4">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J4">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.920205666666666</v>
+        <v>3.339883333333333</v>
       </c>
       <c r="N4">
-        <v>8.760617</v>
+        <v>10.01965</v>
       </c>
       <c r="O4">
-        <v>0.07316022488236669</v>
+        <v>0.0876229470721772</v>
       </c>
       <c r="P4">
-        <v>0.0812926631152317</v>
+        <v>0.09980361508492896</v>
       </c>
       <c r="Q4">
-        <v>119.5455651608791</v>
+        <v>119.4725754271389</v>
       </c>
       <c r="R4">
-        <v>1075.910086447912</v>
+        <v>1075.25317884425</v>
       </c>
       <c r="S4">
-        <v>0.009590676803863387</v>
+        <v>0.009276130603486967</v>
       </c>
       <c r="T4">
-        <v>0.01112492887946378</v>
+        <v>0.01110278387934349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H5">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I5">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J5">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.979235</v>
+        <v>13.955954</v>
       </c>
       <c r="N5">
-        <v>23.95847</v>
+        <v>27.911908</v>
       </c>
       <c r="O5">
-        <v>0.3001170556316015</v>
+        <v>0.366139082308386</v>
       </c>
       <c r="P5">
-        <v>0.2223185684828346</v>
+        <v>0.2780246138655492</v>
       </c>
       <c r="Q5">
-        <v>490.3984793319867</v>
+        <v>499.2251526518434</v>
       </c>
       <c r="R5">
-        <v>2942.39087599192</v>
+        <v>2995.35091591106</v>
       </c>
       <c r="S5">
-        <v>0.03934276703656663</v>
+        <v>0.03876101021500443</v>
       </c>
       <c r="T5">
-        <v>0.03042437248549578</v>
+        <v>0.03092921231621052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H6">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I6">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J6">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.29474</v>
+        <v>2.936101333333333</v>
       </c>
       <c r="N6">
-        <v>18.88422</v>
+        <v>8.808304</v>
       </c>
       <c r="O6">
-        <v>0.1577027944410864</v>
+        <v>0.07702959236975811</v>
       </c>
       <c r="P6">
-        <v>0.1752329241940289</v>
+        <v>0.08773765370716943</v>
       </c>
       <c r="Q6">
-        <v>257.6901549882134</v>
+        <v>105.0286950168089</v>
       </c>
       <c r="R6">
-        <v>2319.21139489392</v>
+        <v>945.25825515128</v>
       </c>
       <c r="S6">
-        <v>0.02067348118437926</v>
+        <v>0.008154673895716584</v>
       </c>
       <c r="T6">
-        <v>0.02398068588595387</v>
+        <v>0.009760490202308146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>424.499008</v>
       </c>
       <c r="I7">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J7">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.560797333333333</v>
+        <v>2.724367666666667</v>
       </c>
       <c r="N7">
-        <v>10.682392</v>
+        <v>8.173103000000001</v>
       </c>
       <c r="O7">
-        <v>0.08920903641850739</v>
+        <v>0.0714746893937865</v>
       </c>
       <c r="P7">
-        <v>0.09912544905465519</v>
+        <v>0.08141055085372029</v>
       </c>
       <c r="Q7">
-        <v>503.8516452296818</v>
+        <v>385.4971239757583</v>
       </c>
       <c r="R7">
-        <v>4534.664807067136</v>
+        <v>3469.474115781824</v>
       </c>
       <c r="S7">
-        <v>0.04042206233238053</v>
+        <v>0.02993089967704379</v>
       </c>
       <c r="T7">
-        <v>0.04688851243822924</v>
+        <v>0.03582488481820308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>424.499008</v>
       </c>
       <c r="I8">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J8">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>45.480693</v>
       </c>
       <c r="O8">
-        <v>0.3798108886264382</v>
+        <v>0.3977336888558922</v>
       </c>
       <c r="P8">
-        <v>0.4220303951532497</v>
+        <v>0.4530235664886322</v>
       </c>
       <c r="Q8">
-        <v>2145.16767351695</v>
+        <v>2145.167673516949</v>
       </c>
       <c r="R8">
         <v>19306.50906165254</v>
       </c>
       <c r="S8">
-        <v>0.1720984782589764</v>
+        <v>0.1665558429185864</v>
       </c>
       <c r="T8">
-        <v>0.1996296372038946</v>
+        <v>0.1993539770852092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>424.499008</v>
       </c>
       <c r="I9">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J9">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.920205666666666</v>
+        <v>3.339883333333333</v>
       </c>
       <c r="N9">
-        <v>8.760617</v>
+        <v>10.01965</v>
       </c>
       <c r="O9">
-        <v>0.07316022488236669</v>
+        <v>0.0876229470721772</v>
       </c>
       <c r="P9">
-        <v>0.0812926631152317</v>
+        <v>0.09980361508492896</v>
       </c>
       <c r="Q9">
-        <v>413.2081362186595</v>
+        <v>472.5923872785777</v>
       </c>
       <c r="R9">
-        <v>3718.873225967936</v>
+        <v>4253.331485507199</v>
       </c>
       <c r="S9">
-        <v>0.03315008534082185</v>
+        <v>0.03669317992800186</v>
       </c>
       <c r="T9">
-        <v>0.03845321339743595</v>
+        <v>0.04391879157386226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>424.499008</v>
       </c>
       <c r="I10">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J10">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.979235</v>
+        <v>13.955954</v>
       </c>
       <c r="N10">
-        <v>23.95847</v>
+        <v>27.911908</v>
       </c>
       <c r="O10">
-        <v>0.3001170556316015</v>
+        <v>0.366139082308386</v>
       </c>
       <c r="P10">
-        <v>0.2223185684828346</v>
+        <v>0.2780246138655492</v>
       </c>
       <c r="Q10">
-        <v>1695.057791366293</v>
+        <v>1974.762876231211</v>
       </c>
       <c r="R10">
-        <v>10170.34674819776</v>
+        <v>11848.57725738726</v>
       </c>
       <c r="S10">
-        <v>0.1359879090369183</v>
+        <v>0.1533252153085938</v>
       </c>
       <c r="T10">
-        <v>0.105161561061974</v>
+        <v>0.1223453184373525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>424.499008</v>
       </c>
       <c r="I11">
-        <v>0.4531162307677896</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J11">
-        <v>0.4730219422499276</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.29474</v>
+        <v>2.936101333333333</v>
       </c>
       <c r="N11">
-        <v>18.88422</v>
+        <v>8.808304</v>
       </c>
       <c r="O11">
-        <v>0.1577027944410864</v>
+        <v>0.07702959236975811</v>
       </c>
       <c r="P11">
-        <v>0.1752329241940289</v>
+        <v>0.08773765370716943</v>
       </c>
       <c r="Q11">
-        <v>890.7036285393067</v>
+        <v>415.4573677958258</v>
       </c>
       <c r="R11">
-        <v>8016.33265685376</v>
+        <v>3739.116310162432</v>
       </c>
       <c r="S11">
-        <v>0.07145769579869257</v>
+        <v>0.03225708318479573</v>
       </c>
       <c r="T11">
-        <v>0.08288901814839388</v>
+        <v>0.03860913978983469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H12">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I12">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J12">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.560797333333333</v>
+        <v>2.724367666666667</v>
       </c>
       <c r="N12">
-        <v>10.682392</v>
+        <v>8.173103000000001</v>
       </c>
       <c r="O12">
-        <v>0.08920903641850739</v>
+        <v>0.0714746893937865</v>
       </c>
       <c r="P12">
-        <v>0.09912544905465519</v>
+        <v>0.08141055085372029</v>
       </c>
       <c r="Q12">
-        <v>146.7813977805405</v>
+        <v>142.5696399222996</v>
       </c>
       <c r="R12">
-        <v>1321.032580024864</v>
+        <v>1283.126759300696</v>
       </c>
       <c r="S12">
-        <v>0.01177570196801538</v>
+        <v>0.01106944079244272</v>
       </c>
       <c r="T12">
-        <v>0.01365949969736867</v>
+        <v>0.01324923225396165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H13">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I13">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J13">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>45.480693</v>
       </c>
       <c r="O13">
-        <v>0.3798108886264382</v>
+        <v>0.3977336888558922</v>
       </c>
       <c r="P13">
-        <v>0.4220303951532497</v>
+        <v>0.4530235664886322</v>
       </c>
       <c r="Q13">
-        <v>624.9274217392175</v>
+        <v>793.3542528983972</v>
       </c>
       <c r="R13">
-        <v>5624.346795652957</v>
+        <v>7140.188276085575</v>
       </c>
       <c r="S13">
-        <v>0.05013550205485842</v>
+        <v>0.06159788251325889</v>
       </c>
       <c r="T13">
-        <v>0.05815584302369897</v>
+        <v>0.07372772184911014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H14">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I14">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J14">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.920205666666666</v>
+        <v>3.339883333333333</v>
       </c>
       <c r="N14">
-        <v>8.760617</v>
+        <v>10.01965</v>
       </c>
       <c r="O14">
-        <v>0.07316022488236669</v>
+        <v>0.0876229470721772</v>
       </c>
       <c r="P14">
-        <v>0.0812926631152317</v>
+        <v>0.09980361508492896</v>
       </c>
       <c r="Q14">
-        <v>120.3752501012849</v>
+        <v>174.7803609776444</v>
       </c>
       <c r="R14">
-        <v>1083.377250911564</v>
+        <v>1573.0232487988</v>
       </c>
       <c r="S14">
-        <v>0.009657239207092282</v>
+        <v>0.01357035662416082</v>
       </c>
       <c r="T14">
-        <v>0.01120213948900797</v>
+        <v>0.01624262779429144</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H15">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I15">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J15">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.979235</v>
+        <v>13.955954</v>
       </c>
       <c r="N15">
-        <v>23.95847</v>
+        <v>27.911908</v>
       </c>
       <c r="O15">
-        <v>0.3001170556316015</v>
+        <v>0.366139082308386</v>
       </c>
       <c r="P15">
-        <v>0.2223185684828346</v>
+        <v>0.2780246138655492</v>
       </c>
       <c r="Q15">
-        <v>493.8020036078734</v>
+        <v>730.3328992252426</v>
       </c>
       <c r="R15">
-        <v>2962.81202164724</v>
+        <v>4381.997395351456</v>
       </c>
       <c r="S15">
-        <v>0.03961581858206064</v>
+        <v>0.05670475699561871</v>
       </c>
       <c r="T15">
-        <v>0.03063552748433276</v>
+        <v>0.04524736220052655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.22149733333334</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H16">
-        <v>123.664492</v>
+        <v>156.993832</v>
       </c>
       <c r="I16">
-        <v>0.1320012236515131</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J16">
-        <v>0.1378001293072295</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.29474</v>
+        <v>2.936101333333333</v>
       </c>
       <c r="N16">
-        <v>18.88422</v>
+        <v>8.808304</v>
       </c>
       <c r="O16">
-        <v>0.1577027944410864</v>
+        <v>0.07702959236975811</v>
       </c>
       <c r="P16">
-        <v>0.1752329241940289</v>
+        <v>0.08773765370716943</v>
       </c>
       <c r="Q16">
-        <v>259.4786081240267</v>
+        <v>153.6499331534365</v>
       </c>
       <c r="R16">
-        <v>2335.30747311624</v>
+        <v>1382.849398380928</v>
       </c>
       <c r="S16">
-        <v>0.02081696183948645</v>
+        <v>0.01192974071290137</v>
       </c>
       <c r="T16">
-        <v>0.02414711961282112</v>
+        <v>0.01427894221564311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H17">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I17">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J17">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.560797333333333</v>
+        <v>2.724367666666667</v>
       </c>
       <c r="N17">
-        <v>10.682392</v>
+        <v>8.173103000000001</v>
       </c>
       <c r="O17">
-        <v>0.08920903641850739</v>
+        <v>0.0714746893937865</v>
       </c>
       <c r="P17">
-        <v>0.09912544905465519</v>
+        <v>0.08141055085372029</v>
       </c>
       <c r="Q17">
-        <v>140.3817767314574</v>
+        <v>133.6116184457337</v>
       </c>
       <c r="R17">
-        <v>842.2906603887442</v>
+        <v>801.669710674402</v>
       </c>
       <c r="S17">
-        <v>0.01126228520457158</v>
+        <v>0.01037391902212528</v>
       </c>
       <c r="T17">
-        <v>0.008709299978400201</v>
+        <v>0.008277832342519385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H18">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I18">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J18">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>45.480693</v>
       </c>
       <c r="O18">
-        <v>0.3798108886264382</v>
+        <v>0.3977336888558922</v>
       </c>
       <c r="P18">
-        <v>0.4220303951532497</v>
+        <v>0.4530235664886322</v>
       </c>
       <c r="Q18">
-        <v>597.6807900625587</v>
+        <v>743.5057406915769</v>
       </c>
       <c r="R18">
-        <v>3586.084740375352</v>
+        <v>4461.034444149461</v>
       </c>
       <c r="S18">
-        <v>0.04794961052426858</v>
+        <v>0.05772752726255134</v>
       </c>
       <c r="T18">
-        <v>0.03708017816258065</v>
+        <v>0.04606347815212838</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H19">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I19">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J19">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.920205666666666</v>
+        <v>3.339883333333333</v>
       </c>
       <c r="N19">
-        <v>8.760617</v>
+        <v>10.01965</v>
       </c>
       <c r="O19">
-        <v>0.07316022488236669</v>
+        <v>0.0876229470721772</v>
       </c>
       <c r="P19">
-        <v>0.0812926631152317</v>
+        <v>0.09980361508492896</v>
       </c>
       <c r="Q19">
-        <v>115.1269284748032</v>
+        <v>163.7984560771833</v>
       </c>
       <c r="R19">
-        <v>690.7615708488191</v>
+        <v>982.7907364630998</v>
       </c>
       <c r="S19">
-        <v>0.009236186728779312</v>
+        <v>0.01271769580415634</v>
       </c>
       <c r="T19">
-        <v>0.007142486574998599</v>
+        <v>0.01014804081518664</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H20">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I20">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J20">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.979235</v>
+        <v>13.955954</v>
       </c>
       <c r="N20">
-        <v>23.95847</v>
+        <v>27.911908</v>
       </c>
       <c r="O20">
-        <v>0.3001170556316015</v>
+        <v>0.366139082308386</v>
       </c>
       <c r="P20">
-        <v>0.2223185684828346</v>
+        <v>0.2780246138655492</v>
       </c>
       <c r="Q20">
-        <v>472.2723973760725</v>
+        <v>684.4441826663179</v>
       </c>
       <c r="R20">
-        <v>1889.08958950429</v>
+        <v>2737.776730665272</v>
       </c>
       <c r="S20">
-        <v>0.03788858181835662</v>
+        <v>0.05314184955426553</v>
       </c>
       <c r="T20">
-        <v>0.01953321898817248</v>
+        <v>0.02826956845935082</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.42425350000001</v>
+        <v>49.043167</v>
       </c>
       <c r="H21">
-        <v>78.84850700000001</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I21">
-        <v>0.1262460133717474</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J21">
-        <v>0.08786139242202191</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.29474</v>
+        <v>2.936101333333333</v>
       </c>
       <c r="N21">
-        <v>18.88422</v>
+        <v>8.808304</v>
       </c>
       <c r="O21">
-        <v>0.1577027944410864</v>
+        <v>0.07702959236975811</v>
       </c>
       <c r="P21">
-        <v>0.1752329241940289</v>
+        <v>0.08773765370716943</v>
       </c>
       <c r="Q21">
-        <v>248.16542547659</v>
+        <v>143.9957080195893</v>
       </c>
       <c r="R21">
-        <v>1488.99255285954</v>
+        <v>863.9742481175359</v>
       </c>
       <c r="S21">
-        <v>0.01990934909577132</v>
+        <v>0.01118016405987569</v>
       </c>
       <c r="T21">
-        <v>0.01539620871786999</v>
+        <v>0.008921172746011258</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H22">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I22">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J22">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.560797333333333</v>
+        <v>2.724367666666667</v>
       </c>
       <c r="N22">
-        <v>10.682392</v>
+        <v>8.173103000000001</v>
       </c>
       <c r="O22">
-        <v>0.08920903641850739</v>
+        <v>0.0714746893937865</v>
       </c>
       <c r="P22">
-        <v>0.09912544905465519</v>
+        <v>0.08141055085372029</v>
       </c>
       <c r="Q22">
-        <v>175.185449625928</v>
+        <v>161.4302302266903</v>
       </c>
       <c r="R22">
-        <v>1576.669046633352</v>
+        <v>1452.872072040212</v>
       </c>
       <c r="S22">
-        <v>0.01405444882744666</v>
+        <v>0.01253382120189563</v>
       </c>
       <c r="T22">
-        <v>0.01630278517804116</v>
+        <v>0.01500197808067397</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H23">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I23">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J23">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>45.480693</v>
       </c>
       <c r="O23">
-        <v>0.3798108886264382</v>
+        <v>0.3977336888558922</v>
       </c>
       <c r="P23">
-        <v>0.4220303951532497</v>
+        <v>0.4530235664886322</v>
       </c>
       <c r="Q23">
-        <v>745.8587601450871</v>
+        <v>898.3073799338412</v>
       </c>
       <c r="R23">
-        <v>6712.728841305784</v>
+        <v>8084.766419404572</v>
       </c>
       <c r="S23">
-        <v>0.05983735406876209</v>
+        <v>0.06974668913389517</v>
       </c>
       <c r="T23">
-        <v>0.06940973217678591</v>
+        <v>0.08348118939402353</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H24">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I24">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J24">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.920205666666666</v>
+        <v>3.339883333333333</v>
       </c>
       <c r="N24">
-        <v>8.760617</v>
+        <v>10.01965</v>
       </c>
       <c r="O24">
-        <v>0.07316022488236669</v>
+        <v>0.0876229470721772</v>
       </c>
       <c r="P24">
-        <v>0.0812926631152317</v>
+        <v>0.09980361508492896</v>
       </c>
       <c r="Q24">
-        <v>143.669379306203</v>
+        <v>197.9021194631777</v>
       </c>
       <c r="R24">
-        <v>1293.024413755827</v>
+        <v>1781.1190751686</v>
       </c>
       <c r="S24">
-        <v>0.01152603680180986</v>
+        <v>0.01536558411237122</v>
       </c>
       <c r="T24">
-        <v>0.0133698947743254</v>
+        <v>0.01839137102224515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H25">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I25">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J25">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.979235</v>
+        <v>13.955954</v>
       </c>
       <c r="N25">
-        <v>23.95847</v>
+        <v>27.911908</v>
       </c>
       <c r="O25">
-        <v>0.3001170556316015</v>
+        <v>0.366139082308386</v>
       </c>
       <c r="P25">
-        <v>0.2223185684828346</v>
+        <v>0.2780246138655492</v>
       </c>
       <c r="Q25">
-        <v>589.3589197015949</v>
+        <v>826.9489081147387</v>
       </c>
       <c r="R25">
-        <v>3536.15351820957</v>
+        <v>4961.693448688432</v>
       </c>
       <c r="S25">
-        <v>0.04728197915769931</v>
+        <v>0.06420625023490348</v>
       </c>
       <c r="T25">
-        <v>0.0365638884628596</v>
+        <v>0.05123315245210888</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.198377</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H26">
-        <v>147.595131</v>
+        <v>177.762604</v>
       </c>
       <c r="I26">
-        <v>0.1575451253784747</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J26">
-        <v>0.1644661924210021</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.29474</v>
+        <v>2.936101333333333</v>
       </c>
       <c r="N26">
-        <v>18.88422</v>
+        <v>8.808304</v>
       </c>
       <c r="O26">
-        <v>0.1577027944410864</v>
+        <v>0.07702959236975811</v>
       </c>
       <c r="P26">
-        <v>0.1752329241940289</v>
+        <v>0.08773765370716943</v>
       </c>
       <c r="Q26">
-        <v>309.69099163698</v>
+        <v>173.9763395404018</v>
       </c>
       <c r="R26">
-        <v>2787.21892473282</v>
+        <v>1565.787055863616</v>
       </c>
       <c r="S26">
-        <v>0.02484530652275677</v>
+        <v>0.01350793051646872</v>
       </c>
       <c r="T26">
-        <v>0.02881989182899003</v>
+        <v>0.01616790875337223</v>
       </c>
     </row>
   </sheetData>
